--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bassant\Documents\UiPath\Vendors_Invoices_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC2E05-D0E6-46F2-AF66-504C49AB18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70970D7C-ECD9-4378-BBE1-2BA892A563BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>MailBusiness</t>
+  </si>
+  <si>
+    <t>Str_MyMailAddress</t>
+  </si>
+  <si>
+    <t>MyMailAddress</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1667,7 +1673,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,7 +1685,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1869,7 +1874,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B19" s="6"/>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2853,7 +2860,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2908,7 +2915,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bassant\Documents\UiPath\Vendors_Invoices_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70970D7C-ECD9-4378-BBE1-2BA892A563BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDC354-DE30-49A6-87EE-A2C25B581CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -195,6 +195,54 @@
   </si>
   <si>
     <t>MyMailAddress</t>
+  </si>
+  <si>
+    <t>Vendor_Tax_ID</t>
+  </si>
+  <si>
+    <t>Str_TemplatePath</t>
+  </si>
+  <si>
+    <t>TemplatePath</t>
+  </si>
+  <si>
+    <t>AllUsedApplications</t>
+  </si>
+  <si>
+    <t>Str_MainPath</t>
+  </si>
+  <si>
+    <t>MainPath</t>
+  </si>
+  <si>
+    <t>VendorColumnNames</t>
+  </si>
+  <si>
+    <t>Vendor,Tax_ID,Address,City,Country,Vendor_Status</t>
+  </si>
+  <si>
+    <t>VendorDt_TaxId_ColumnName</t>
+  </si>
+  <si>
+    <t>Tax_ID</t>
+  </si>
+  <si>
+    <t>InvoicesDt_VendorTaxIdColumnName</t>
+  </si>
+  <si>
+    <t>Str_Director</t>
+  </si>
+  <si>
+    <t>DDirector</t>
+  </si>
+  <si>
+    <t>Str_FileInsideDirector</t>
+  </si>
+  <si>
+    <t>AllInvoicesFileName</t>
+  </si>
+  <si>
+    <t>msedge,cmd,WINWORD</t>
   </si>
 </sst>
 </file>
@@ -583,7 +631,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -684,8 +732,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1684,14 +1746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" customWidth="1"/>
     <col min="3" max="3" width="75.453125" customWidth="1"/>
     <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
@@ -1875,9 +1937,21 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B19" s="6"/>
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2857,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2923,10 +2997,38 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3918,10 +4020,9 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bassant\Documents\UiPath\Vendors_Invoices_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDC354-DE30-49A6-87EE-A2C25B581CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF76E01-161F-46C2-9902-9F6245C260C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1746,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bassant\Documents\UiPath\Vendors_Invoices_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalid Sobh\Documents\UiPath\Vendors_Invoices_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF76E01-161F-46C2-9902-9F6245C260C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806643D-D187-4C87-8477-57989E4EDB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>VendorColumnNames</t>
   </si>
   <si>
-    <t>Vendor,Tax_ID,Address,City,Country,Vendor_Status</t>
-  </si>
-  <si>
     <t>VendorDt_TaxId_ColumnName</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>msedge,cmd,WINWORD</t>
+  </si>
+  <si>
+    <t>Vendor,Tax_ID,Address,City,Country</t>
   </si>
 </sst>
 </file>
@@ -630,16 +630,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -687,7 +687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -697,7 +697,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -734,7 +734,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1746,16 +1746,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51.26953125" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1792,7 +1792,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1949,7 +1949,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2937,12 +2937,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3015,18 +3015,18 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
